--- a/NewOnes.xlsx
+++ b/NewOnes.xlsx
@@ -43,7 +43,7 @@
     <t>TimeStamp</t>
   </si>
   <si>
-    <t>./NewOnes/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 1000000 MonteVaR 2022-10-05.xlsx</t>
+    <t>./NewOnes/CRYPTO Lorenzo Reyes lreyes@udesa.edu.ar 3200 MonteSharpe 2022-11-05.xlsx</t>
   </si>
   <si>
     <t>NewOnes/CRYPTO</t>
@@ -55,13 +55,13 @@
     <t>lreyes@udesa.edu.ar</t>
   </si>
   <si>
-    <t>1000000</t>
-  </si>
-  <si>
-    <t>MonteVaR</t>
-  </si>
-  <si>
-    <t>14:59:47 05-10-2022</t>
+    <t>3200</t>
+  </si>
+  <si>
+    <t>MonteSharpe</t>
+  </si>
+  <si>
+    <t>21:37:41 05-11-2022</t>
   </si>
 </sst>
 </file>
